--- a/static/download/2020年12月31日周四.xlsx
+++ b/static/download/2020年12月31日周四.xlsx
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>20中交Y1</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H30" s="6" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>20诚通控股MTN001A</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>20安纾03</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H52" s="6" t="inlineStr">
@@ -3627,26 +3627,14 @@
       <c r="H72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>6.72Y</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>20汇金01</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="D73" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A73" s="33" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B73" s="34" t="n"/>
+      <c r="C73" s="34" t="n"/>
+      <c r="D73" s="35" t="n"/>
       <c r="E73" s="5" t="n"/>
       <c r="F73" s="5" t="n"/>
       <c r="G73" s="5" t="n"/>
@@ -3655,17 +3643,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8.69Y</t>
+          <t>348D</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>19国新02</t>
+          <t>18厦门国际银行</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
@@ -3681,17 +3669,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8.9Y</t>
+          <t>1.55Y</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>19山高02</t>
+          <t>19西南02</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
@@ -3707,17 +3695,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>18.61Y</t>
+          <t>1.55Y</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>19铁道06</t>
+          <t>19西南02</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
@@ -3731,14 +3719,26 @@
       <c r="H76" s="6" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="33" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B77" s="34" t="n"/>
-      <c r="C77" s="34" t="n"/>
-      <c r="D77" s="35" t="n"/>
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>1.94Y</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>20华泰G8</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>AA/AAA</t>
+        </is>
+      </c>
       <c r="E77" s="5" t="n"/>
       <c r="F77" s="5" t="n"/>
       <c r="G77" s="5" t="n"/>
@@ -3747,22 +3747,22 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>348D</t>
+          <t>1.94Y</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>18厦门国际银行</t>
+          <t>20华泰G8</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
       <c r="E78" s="5" t="n"/>
@@ -3773,17 +3773,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>1.55Y</t>
+          <t>2.24Y</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>19西南02</t>
+          <t>20信达01</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
@@ -3799,17 +3799,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>1.55Y</t>
+          <t>2.24Y</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>19西南02</t>
+          <t>20信达01</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
@@ -3825,22 +3825,22 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>1.94Y</t>
+          <t>2.24Y</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>20华泰G8</t>
+          <t>20信达01</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E81" s="5" t="n"/>
@@ -3851,22 +3851,22 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>1.94Y</t>
+          <t>2.29Y</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>20华泰G8</t>
+          <t>20华夏银行绿色01</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E82" s="5" t="n"/>
@@ -3877,22 +3877,22 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>2.24Y</t>
+          <t>2.53Y</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>20信达01</t>
+          <t>20中证13</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
       <c r="E83" s="5" t="n"/>
@@ -3903,17 +3903,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>2.24Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>20信达01</t>
+          <t>20招商G1</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
@@ -3929,17 +3929,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>2.24Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>20信达01</t>
+          <t>20招商G1</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
@@ -3955,17 +3955,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>2.29Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>20华夏银行绿色01</t>
+          <t>20招商G1</t>
         </is>
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
@@ -3981,12 +3981,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>2.53Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>20中证13</t>
+          <t>20招商G1</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E87" s="5" t="n"/>
@@ -4007,12 +4007,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.57Y</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>20招商G1</t>
+          <t>20中证15</t>
         </is>
       </c>
       <c r="C88" s="4" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
       <c r="E88" s="5" t="n"/>
@@ -4033,12 +4033,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.60Y</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>20招商G1</t>
+          <t>20中证16</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
       <c r="E89" s="5" t="n"/>
@@ -4059,17 +4059,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>20招商G1</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
@@ -4085,17 +4085,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>20招商G1</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
@@ -4111,22 +4111,22 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>2.57Y</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>20中证15</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E92" s="5" t="n"/>
@@ -4137,22 +4137,22 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>2.60Y</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>20中证16</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E93" s="5" t="n"/>
@@ -4163,17 +4163,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>2.87Y</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>20交通银行02</t>
+          <t>20华夏银行</t>
         </is>
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>2.87Y</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>20交通银行02</t>
+          <t>20华夏银行</t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
@@ -4215,17 +4215,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>2.87Y</t>
+          <t>3.95Y+N</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>20交通银行02</t>
+          <t>19中信银行永续债</t>
         </is>
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
@@ -4239,104 +4239,40 @@
       <c r="H96" s="6" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>2.87Y</t>
-        </is>
-      </c>
-      <c r="B97" s="4" t="inlineStr">
-        <is>
-          <t>20交通银行02</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="4" t="n"/>
+      <c r="C97" s="4" t="n"/>
+      <c r="D97" s="4" t="n"/>
       <c r="E97" s="5" t="n"/>
       <c r="F97" s="5" t="n"/>
       <c r="G97" s="5" t="n"/>
       <c r="H97" s="6" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>2.96Y</t>
-        </is>
-      </c>
-      <c r="B98" s="4" t="inlineStr">
-        <is>
-          <t>20华夏银行</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="4" t="n"/>
+      <c r="C98" s="4" t="n"/>
+      <c r="D98" s="4" t="n"/>
       <c r="E98" s="5" t="n"/>
       <c r="F98" s="5" t="n"/>
       <c r="G98" s="5" t="n"/>
       <c r="H98" s="6" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>2.96Y</t>
-        </is>
-      </c>
-      <c r="B99" s="4" t="inlineStr">
-        <is>
-          <t>20华夏银行</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="4" t="n"/>
+      <c r="C99" s="4" t="n"/>
+      <c r="D99" s="4" t="n"/>
       <c r="E99" s="5" t="n"/>
       <c r="F99" s="5" t="n"/>
       <c r="G99" s="5" t="n"/>
       <c r="H99" s="6" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>3.95Y+N</t>
-        </is>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
-        <is>
-          <t>19中信银行永续债</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="4" t="n"/>
+      <c r="C100" s="4" t="n"/>
+      <c r="D100" s="4" t="n"/>
       <c r="E100" s="5" t="n"/>
       <c r="F100" s="5" t="n"/>
       <c r="G100" s="5" t="n"/>
@@ -13007,7 +12943,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="94"/>

--- a/static/download/2020年12月31日周四.xlsx
+++ b/static/download/2020年12月31日周四.xlsx
@@ -389,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,6 +502,74 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -886,17 +957,17 @@
       <c r="D3" s="35" t="n"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>1.12Y</t>
+          <t>1.87Y</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>17远东一</t>
+          <t>19安信G1</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
@@ -928,17 +999,17 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>1.12Y</t>
+          <t>1.93Y</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>17远东一</t>
+          <t>17陕能02</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr">
@@ -970,17 +1041,17 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>1.12Y</t>
+          <t>1.94Y</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>17远东一</t>
+          <t>20华泰G8</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="H5" s="6" t="inlineStr">
@@ -1000,17 +1071,17 @@
       <c r="D6" s="35" t="n"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>1.14Y</t>
+          <t>1.94Y</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>19长电01</t>
+          <t>20华泰G8</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H6" s="6" t="inlineStr">
@@ -1042,17 +1113,17 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>1.14Y</t>
+          <t>1.94Y+2Y</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>19长电01</t>
+          <t>19常高05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
@@ -1084,17 +1155,17 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>1.16Y</t>
+          <t>1.98Y+N</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>19广发03</t>
+          <t>20上航Y2</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -1126,17 +1197,17 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>1.22Y+2Y</t>
+          <t>2.04Y</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>19国新01</t>
+          <t>20中租01</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
@@ -1168,17 +1239,17 @@
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>1.44Y</t>
+          <t>2.18Y+2Y</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>19建材07</t>
+          <t>20绿城01</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -1210,17 +1281,17 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>1.52Y+N</t>
+          <t>2.31Y</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>19中交Y1</t>
+          <t>20兵装02</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
@@ -1252,17 +1323,17 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>1.55Y</t>
+          <t>2.32Y+N</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>17平租01</t>
+          <t>20中交Y1</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
@@ -1294,17 +1365,17 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>1.57Y</t>
+          <t>2.32Y</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>17长证02</t>
+          <t>20中船03</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H13" s="6" t="inlineStr">
@@ -1336,17 +1407,17 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>1.7Y</t>
+          <t>2.32Y+NY</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>19贵阳银行绿色金融01</t>
+          <t>20中交Y1</t>
         </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
@@ -1378,17 +1449,17 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>1.79Y+2Y</t>
+          <t>2.4Y</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>19中财01</t>
+          <t>20兴业银行小微债03</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>3.33行权</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
@@ -1420,17 +1491,17 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>1.82Y+1Y</t>
+          <t>2.66Y+N</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>20中金13</t>
+          <t>20中保Y1</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="H16" s="6" t="inlineStr">
@@ -1462,17 +1533,17 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>1.87Y</t>
+          <t>2.68Y+5Y</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>19安信G1</t>
+          <t>18中国银行二级01</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.88行权</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
@@ -1504,17 +1575,17 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>1.93Y</t>
+          <t>2.7Y+2Y</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>17陕能02</t>
+          <t>20龙控04</t>
         </is>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr">
@@ -1546,17 +1617,17 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>1.94Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>20华泰G8</t>
+          <t>20长江05</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="H19" s="6" t="inlineStr">
@@ -1588,17 +1659,17 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>1.94Y</t>
+          <t>2.83Y</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>20华泰G8</t>
+          <t>18洋河01</t>
         </is>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H20" s="6" t="inlineStr">
@@ -1630,17 +1701,17 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>1.94Y</t>
+          <t>2.84Y</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>20华泰G8</t>
+          <t>20东债03</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
@@ -1672,17 +1743,17 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>1.94Y+2Y</t>
+          <t>2.84Y+2Y</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>19常高05</t>
+          <t>20海资G1</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.20行权</t>
         </is>
       </c>
       <c r="H22" s="6" t="inlineStr">
@@ -1694,12 +1765,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2.18Y</t>
+          <t>2.19Y</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>20南电MTN004</t>
+          <t>20南电MTN006</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1714,17 +1785,17 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>1.98Y+N</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>20上航Y2</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H23" s="6" t="inlineStr">
@@ -1736,17 +1807,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2.19Y</t>
+          <t>2.24Y</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>20南电MTN006</t>
+          <t>18常城建MTN003</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1756,17 +1827,17 @@
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>2.04Y</t>
+          <t>2.91Y</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>20中租01</t>
+          <t>G18首股</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H24" s="6" t="inlineStr">
@@ -1778,17 +1849,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2.24Y</t>
+          <t>2.28Y+N</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>18常城建MTN003</t>
+          <t>20华侨城MTN002</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1798,17 +1869,17 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>2.18Y+2Y</t>
+          <t>2.93Y+6Y</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>20绿城01</t>
+          <t>20青城05</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="H25" s="6" t="inlineStr">
@@ -1820,17 +1891,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2.28Y+N</t>
+          <t>2.32Y</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN002</t>
+          <t>20南航股MTN009</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -1840,17 +1911,17 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2.18Y+2Y</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>20绿城01</t>
+          <t>20华夏银行</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="H26" s="6" t="inlineStr">
@@ -1862,37 +1933,37 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2.28Y+N</t>
+          <t>2.35Y</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN002</t>
+          <t>20正泰MTN001</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>2.31Y</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>20兵装02</t>
+          <t>20华夏银行</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H27" s="6" t="inlineStr">
@@ -1904,17 +1975,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2.32Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>20南航股MTN009</t>
+          <t>18新盛建设MTN003</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -1924,17 +1995,17 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>2.32Y+N</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>20中交Y1</t>
+          <t>20安纾03</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H28" s="6" t="inlineStr">
@@ -1946,37 +2017,37 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2.35Y</t>
+          <t>2.47Y</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>20正泰MTN001</t>
+          <t>20汇金MTN008A</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>2.32Y</t>
+          <t>3.58Y+N</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>20中船03</t>
+          <t>19工商银行永续债</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="H29" s="6" t="inlineStr">
@@ -1988,37 +2059,37 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2.43Y</t>
+          <t>2.5Y+N</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>18新盛建设MTN003</t>
+          <t>20中交天津MTN001</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>2.32Y+NY</t>
+          <t>3.63Y+5Y</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>20中交Y1</t>
+          <t>14建行二级01</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.05行权</t>
         </is>
       </c>
       <c r="H30" s="6" t="inlineStr">
@@ -2030,17 +2101,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2.47Y</t>
+          <t>2.58Y</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>20汇金MTN008A</t>
+          <t>18萧山国资MTN002</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -2050,17 +2121,17 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>2.4Y</t>
+          <t>3.64Y</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>20兴业银行小微债03</t>
+          <t>19东航01</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H31" s="6" t="inlineStr">
@@ -2072,37 +2143,37 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2.5Y+N</t>
+          <t>2.64Y+2Y</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>20中交天津MTN001</t>
+          <t>20诚通控股MTN001A</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>2.66Y+N</t>
+          <t>3.67Y+N</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>20中保Y1</t>
+          <t>电投Y24</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H32" s="6" t="inlineStr">
@@ -2114,17 +2185,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2.58Y</t>
+          <t>2.65Y+N</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>18萧山国资MTN002</t>
+          <t>20京能电力MTN001</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -2134,17 +2205,17 @@
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>2.68Y+5Y</t>
+          <t>4.18Y+N</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>18中国银行二级01</t>
+          <t>20新际Y1</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>3.88行权</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H33" s="6" t="inlineStr">
@@ -2156,17 +2227,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2.58Y</t>
+          <t>2.78Y</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>18萧山国资MTN002</t>
+          <t>18冀港集MTN002</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -2176,17 +2247,17 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>2.68Y+5Y</t>
+          <t>4.25Y</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>18中国银行二级01</t>
+          <t>15长沙轨道债01</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>3.88行权</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="H34" s="6" t="inlineStr">
@@ -2198,17 +2269,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2.64Y+2Y</t>
+          <t>2.81Y+N</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>20诚通控股MTN001A</t>
+          <t>20华侨城MTN005</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -2218,17 +2289,17 @@
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>2.7Y+2Y</t>
+          <t>4.25Y+N</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>20龙控04</t>
+          <t>20江苏银行永续债</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H35" s="6" t="inlineStr">
@@ -2240,17 +2311,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2.65Y+N</t>
+          <t>2.84Y+N</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>20京能电力MTN001</t>
+          <t>20华发集团MTN004</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -2260,17 +2331,17 @@
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>4.28Y</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>20长江05</t>
+          <t>20沪国01</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="H36" s="6" t="inlineStr">
@@ -2282,17 +2353,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2.78Y</t>
+          <t>2.84Y+N</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>18冀港集MTN002</t>
+          <t>20华侨城MTN006</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -2302,17 +2373,17 @@
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>2.83Y</t>
+          <t>4.52Y+N</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>18洋河01</t>
+          <t>20招商银行永续债01</t>
         </is>
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
@@ -2324,17 +2395,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2.81Y+N</t>
+          <t>3.02Y</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN005</t>
+          <t>19中石油MTN001</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
@@ -2344,17 +2415,17 @@
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>2.84Y</t>
+          <t>4.52Y+N</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>20东债03</t>
+          <t>20招商银行永续债01</t>
         </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.555</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
@@ -2366,17 +2437,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2.81Y+N</t>
+          <t>4.16Y</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN005</t>
+          <t>20南京地铁GN001</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
@@ -2386,39 +2457,39 @@
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>2.84Y+2Y</t>
+          <t>4.73Y</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
         <is>
-          <t>20海资G1</t>
+          <t>18湖州城投债01</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>4.20行权</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2.84Y+N</t>
+          <t>4.2Y</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>20华发集团MTN004</t>
+          <t>20汇金MTN004</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
@@ -2428,17 +2499,17 @@
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>2.87Y</t>
+          <t>4.74Y+5Y</t>
         </is>
       </c>
       <c r="F40" s="5" t="inlineStr">
         <is>
-          <t>20交通银行02</t>
+          <t>20徽商银行二级01</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
@@ -2450,17 +2521,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2.84Y+N</t>
+          <t>4.28Y</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN006</t>
+          <t>20天津轨交MTN001</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -2470,17 +2541,17 @@
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>2.91Y</t>
+          <t>4.9Y+N</t>
         </is>
       </c>
       <c r="F41" s="5" t="inlineStr">
         <is>
-          <t>G18首股</t>
+          <t>20浦发银行永续债</t>
         </is>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
@@ -2492,17 +2563,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2.84Y+N</t>
+          <t>4.31Y</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>20华侨城MTN006</t>
+          <t>20汇金MTN006</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -2512,39 +2583,39 @@
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>2.93Y+6Y</t>
+          <t>4.98Y</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>20青城05</t>
+          <t>15正定棚改项目债</t>
         </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="H42" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3.02Y</t>
+          <t>4.4Y</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>19中石油MTN001</t>
+          <t>20南电MTN008</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -2552,61 +2623,37 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr">
-        <is>
-          <t>2.96Y</t>
-        </is>
-      </c>
-      <c r="F43" s="5" t="inlineStr">
-        <is>
-          <t>20华夏银行</t>
-        </is>
-      </c>
-      <c r="G43" s="5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="H43" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E43" s="36" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="F43" s="34" t="n"/>
+      <c r="G43" s="34" t="n"/>
+      <c r="H43" s="35" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>3.02Y</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>19中石油MTN001</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A44" s="33" t="inlineStr">
+        <is>
+          <t>企业债</t>
+        </is>
+      </c>
+      <c r="B44" s="34" t="n"/>
+      <c r="C44" s="34" t="n"/>
+      <c r="D44" s="35" t="n"/>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>348D</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>18厦门国际银行</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
@@ -2618,17 +2665,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4.16Y</t>
+          <t>0.82Y+2Y</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>20南京地铁GN001</t>
+          <t>16油服04</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -2638,17 +2685,17 @@
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>1.55Y</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>19西南02</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
@@ -2660,17 +2707,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4.2Y</t>
+          <t>302D</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>20汇金MTN004</t>
+          <t>20平证04</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -2680,39 +2727,39 @@
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>1.94Y</t>
         </is>
       </c>
       <c r="F46" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20华泰G8</t>
         </is>
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4.28Y</t>
+          <t>319D</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>20天津轨交MTN001</t>
+          <t>18广核01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -2722,17 +2769,17 @@
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.24Y</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20信达01</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
@@ -2744,17 +2791,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4.31Y</t>
+          <t>326D</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>20汇金MTN006</t>
+          <t>16交行绿色金融债02</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
@@ -2764,17 +2811,17 @@
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.29Y</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20华夏银行绿色01</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
@@ -2786,17 +2833,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4.4Y</t>
+          <t>335D+1Y</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>20南电MTN008</t>
+          <t>17绍交03</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -2806,47 +2853,59 @@
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.53Y</t>
         </is>
       </c>
       <c r="F49" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20中证13</t>
         </is>
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H49" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="33" t="inlineStr">
-        <is>
-          <t>企业债</t>
-        </is>
-      </c>
-      <c r="B50" s="34" t="n"/>
-      <c r="C50" s="34" t="n"/>
-      <c r="D50" s="35" t="n"/>
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>338D</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>G18龙源2</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20招商G1</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H50" s="6" t="inlineStr">
@@ -2858,17 +2917,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>0.82Y+2Y</t>
+          <t>344D</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>16油服04</t>
+          <t>18华发03</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -2878,39 +2937,39 @@
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.57Y</t>
         </is>
       </c>
       <c r="F51" s="5" t="inlineStr">
         <is>
-          <t>20华夏银行</t>
+          <t>20中证15</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H51" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>302D</t>
+          <t>1.12Y</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>20平证04</t>
+          <t>17远东一</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
@@ -2920,39 +2979,39 @@
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>2.96Y</t>
+          <t>2.60Y</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>20安纾03</t>
+          <t>20中证16</t>
         </is>
       </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H52" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>302D</t>
+          <t>1.14Y</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>20平证04</t>
+          <t>19长电01</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
@@ -2962,17 +3021,17 @@
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>3.58Y+N</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>19工商银行永续债</t>
+          <t>20交通银行02</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H53" s="6" t="inlineStr">
@@ -2984,17 +3043,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>319D</t>
+          <t>1.16Y</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>18广核01</t>
+          <t>19广发03</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
@@ -3004,17 +3063,17 @@
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>3.58Y+N</t>
+          <t>2.96Y</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>19工商银行永续债</t>
+          <t>20华夏银行</t>
         </is>
       </c>
       <c r="G54" s="5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="H54" s="6" t="inlineStr">
@@ -3026,17 +3085,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>319D</t>
+          <t>1.22Y+2Y</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>18广核01</t>
+          <t>19国新01</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -3046,17 +3105,17 @@
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>3.63Y+5Y</t>
+          <t>3.95Y+N</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>14建行二级01</t>
+          <t>19中信银行永续债</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>4.05行权</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H55" s="6" t="inlineStr">
@@ -3068,17 +3127,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>326D</t>
+          <t>1.44Y</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>16交行绿色金融债02</t>
+          <t>19建材07</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
@@ -3086,41 +3145,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>3.63Y+5Y</t>
-        </is>
-      </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>14建行二级01</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>4.05行权</t>
-        </is>
-      </c>
-      <c r="H56" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E56" s="5" t="n"/>
+      <c r="F56" s="5" t="n"/>
+      <c r="G56" s="5" t="n"/>
+      <c r="H56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>326D</t>
+          <t>1.52Y+N</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>16交行绿色金融债02</t>
+          <t>19中交Y1</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
@@ -3128,41 +3171,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
-        <is>
-          <t>3.63Y+5Y</t>
-        </is>
-      </c>
-      <c r="F57" s="5" t="inlineStr">
-        <is>
-          <t>14建行二级01</t>
-        </is>
-      </c>
-      <c r="G57" s="5" t="inlineStr">
-        <is>
-          <t>4.05行权</t>
-        </is>
-      </c>
-      <c r="H57" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E57" s="5" t="n"/>
+      <c r="F57" s="5" t="n"/>
+      <c r="G57" s="5" t="n"/>
+      <c r="H57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>326D</t>
+          <t>1.55Y</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>16交行绿色金融债02</t>
+          <t>17平租01</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
@@ -3170,41 +3197,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>3.64Y</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>19东航01</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="H58" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E58" s="5" t="n"/>
+      <c r="F58" s="5" t="n"/>
+      <c r="G58" s="5" t="n"/>
+      <c r="H58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>335D+1Y</t>
+          <t>1.57Y</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>17绍交03</t>
+          <t>17长证02</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
@@ -3212,41 +3223,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr">
-        <is>
-          <t>3.67Y+N</t>
-        </is>
-      </c>
-      <c r="F59" s="5" t="inlineStr">
-        <is>
-          <t>电投Y24</t>
-        </is>
-      </c>
-      <c r="G59" s="5" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H59" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E59" s="5" t="n"/>
+      <c r="F59" s="5" t="n"/>
+      <c r="G59" s="5" t="n"/>
+      <c r="H59" s="6" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>338D</t>
+          <t>1.7Y</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>G18龙源2</t>
+          <t>19贵阳银行绿色金融01</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
@@ -3254,41 +3249,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
-        <is>
-          <t>4.18Y+N</t>
-        </is>
-      </c>
-      <c r="F60" s="5" t="inlineStr">
-        <is>
-          <t>20新际Y1</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="H60" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E60" s="5" t="n"/>
+      <c r="F60" s="5" t="n"/>
+      <c r="G60" s="5" t="n"/>
+      <c r="H60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>344D</t>
+          <t>1.79Y+2Y</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>18华发03</t>
+          <t>19中财01</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.33行权</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
@@ -3296,41 +3275,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
-        <is>
-          <t>4.18Y+N</t>
-        </is>
-      </c>
-      <c r="F61" s="5" t="inlineStr">
-        <is>
-          <t>20新际Y1</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="H61" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E61" s="5" t="n"/>
+      <c r="F61" s="5" t="n"/>
+      <c r="G61" s="5" t="n"/>
+      <c r="H61" s="6" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="7" t="inlineStr">
         <is>
-          <t>1.12Y</t>
+          <t>1.82Y+1Y</t>
         </is>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
-          <t>17远东一</t>
+          <t>20中金13</t>
         </is>
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
@@ -3338,26 +3301,10 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E62" s="9" t="inlineStr">
-        <is>
-          <t>4.25Y</t>
-        </is>
-      </c>
-      <c r="F62" s="9" t="inlineStr">
-        <is>
-          <t>15长沙轨道债01</t>
-        </is>
-      </c>
-      <c r="G62" s="9" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="H62" s="10" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+      <c r="H62" s="10" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="29" t="inlineStr">
@@ -3419,820 +3366,320 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>4.25Y+N</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>20江苏银行永续债</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
       <c r="E65" s="5" t="n"/>
       <c r="F65" s="5" t="n"/>
       <c r="G65" s="5" t="n"/>
       <c r="H65" s="6" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>4.28Y</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="inlineStr">
-        <is>
-          <t>20沪国01</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
       <c r="E66" s="5" t="n"/>
       <c r="F66" s="5" t="n"/>
       <c r="G66" s="5" t="n"/>
       <c r="H66" s="6" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>4.52Y+N</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t>20招商银行永续债01</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
       <c r="E67" s="5" t="n"/>
       <c r="F67" s="5" t="n"/>
       <c r="G67" s="5" t="n"/>
       <c r="H67" s="6" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>4.52Y+N</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>20招商银行永续债01</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="inlineStr">
-        <is>
-          <t>4.555</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A68" s="3" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
       <c r="E68" s="5" t="n"/>
       <c r="F68" s="5" t="n"/>
       <c r="G68" s="5" t="n"/>
       <c r="H68" s="6" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>4.73Y</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>18湖州城投债01</t>
-        </is>
-      </c>
-      <c r="C69" s="4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>AA+/AAA</t>
-        </is>
-      </c>
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
       <c r="E69" s="5" t="n"/>
       <c r="F69" s="5" t="n"/>
       <c r="G69" s="5" t="n"/>
       <c r="H69" s="6" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>4.74Y+5Y</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>20徽商银行二级01</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A70" s="3" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
       <c r="E70" s="5" t="n"/>
       <c r="F70" s="5" t="n"/>
       <c r="G70" s="5" t="n"/>
       <c r="H70" s="6" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>4.9Y+N</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>20浦发银行永续债</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
       <c r="E71" s="5" t="n"/>
       <c r="F71" s="5" t="n"/>
       <c r="G71" s="5" t="n"/>
       <c r="H71" s="6" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>4.98Y</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>15正定棚改项目债</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A72" s="3" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
       <c r="E72" s="5" t="n"/>
       <c r="F72" s="5" t="n"/>
       <c r="G72" s="5" t="n"/>
       <c r="H72" s="6" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="33" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B73" s="34" t="n"/>
-      <c r="C73" s="34" t="n"/>
-      <c r="D73" s="35" t="n"/>
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
       <c r="E73" s="5" t="n"/>
       <c r="F73" s="5" t="n"/>
       <c r="G73" s="5" t="n"/>
       <c r="H73" s="6" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>348D</t>
-        </is>
-      </c>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>18厦门国际银行</t>
-        </is>
-      </c>
-      <c r="C74" s="4" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
       <c r="E74" s="5" t="n"/>
       <c r="F74" s="5" t="n"/>
       <c r="G74" s="5" t="n"/>
       <c r="H74" s="6" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>1.55Y</t>
-        </is>
-      </c>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>19西南02</t>
-        </is>
-      </c>
-      <c r="C75" s="4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="D75" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
       <c r="E75" s="5" t="n"/>
       <c r="F75" s="5" t="n"/>
       <c r="G75" s="5" t="n"/>
       <c r="H75" s="6" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>1.55Y</t>
-        </is>
-      </c>
-      <c r="B76" s="4" t="inlineStr">
-        <is>
-          <t>19西南02</t>
-        </is>
-      </c>
-      <c r="C76" s="4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="D76" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A76" s="3" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
       <c r="E76" s="5" t="n"/>
       <c r="F76" s="5" t="n"/>
       <c r="G76" s="5" t="n"/>
       <c r="H76" s="6" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>1.94Y</t>
-        </is>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>20华泰G8</t>
-        </is>
-      </c>
-      <c r="C77" s="4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
       <c r="E77" s="5" t="n"/>
       <c r="F77" s="5" t="n"/>
       <c r="G77" s="5" t="n"/>
       <c r="H77" s="6" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>1.94Y</t>
-        </is>
-      </c>
-      <c r="B78" s="4" t="inlineStr">
-        <is>
-          <t>20华泰G8</t>
-        </is>
-      </c>
-      <c r="C78" s="4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="D78" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A78" s="3" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
       <c r="E78" s="5" t="n"/>
       <c r="F78" s="5" t="n"/>
       <c r="G78" s="5" t="n"/>
       <c r="H78" s="6" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>2.24Y</t>
-        </is>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>20信达01</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
       <c r="E79" s="5" t="n"/>
       <c r="F79" s="5" t="n"/>
       <c r="G79" s="5" t="n"/>
       <c r="H79" s="6" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>2.24Y</t>
-        </is>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
-        <is>
-          <t>20信达01</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A80" s="3" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
       <c r="E80" s="5" t="n"/>
       <c r="F80" s="5" t="n"/>
       <c r="G80" s="5" t="n"/>
       <c r="H80" s="6" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>2.24Y</t>
-        </is>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
-        <is>
-          <t>20信达01</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
       <c r="E81" s="5" t="n"/>
       <c r="F81" s="5" t="n"/>
       <c r="G81" s="5" t="n"/>
       <c r="H81" s="6" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>2.29Y</t>
-        </is>
-      </c>
-      <c r="B82" s="4" t="inlineStr">
-        <is>
-          <t>20华夏银行绿色01</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
       <c r="E82" s="5" t="n"/>
       <c r="F82" s="5" t="n"/>
       <c r="G82" s="5" t="n"/>
       <c r="H82" s="6" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>2.53Y</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>20中证13</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
       <c r="E83" s="5" t="n"/>
       <c r="F83" s="5" t="n"/>
       <c r="G83" s="5" t="n"/>
       <c r="H83" s="6" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>2.56Y</t>
-        </is>
-      </c>
-      <c r="B84" s="4" t="inlineStr">
-        <is>
-          <t>20招商G1</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A84" s="3" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
       <c r="E84" s="5" t="n"/>
       <c r="F84" s="5" t="n"/>
       <c r="G84" s="5" t="n"/>
       <c r="H84" s="6" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>2.56Y</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>20招商G1</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
       <c r="E85" s="5" t="n"/>
       <c r="F85" s="5" t="n"/>
       <c r="G85" s="5" t="n"/>
       <c r="H85" s="6" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>2.56Y</t>
-        </is>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>20招商G1</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A86" s="3" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
       <c r="E86" s="5" t="n"/>
       <c r="F86" s="5" t="n"/>
       <c r="G86" s="5" t="n"/>
       <c r="H86" s="6" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>2.56Y</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>20招商G1</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
       <c r="E87" s="5" t="n"/>
       <c r="F87" s="5" t="n"/>
       <c r="G87" s="5" t="n"/>
       <c r="H87" s="6" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>2.57Y</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>20中证15</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A88" s="3" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
       <c r="E88" s="5" t="n"/>
       <c r="F88" s="5" t="n"/>
       <c r="G88" s="5" t="n"/>
       <c r="H88" s="6" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>2.60Y</t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>20中证16</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="n"/>
+      <c r="D89" s="4" t="n"/>
       <c r="E89" s="5" t="n"/>
       <c r="F89" s="5" t="n"/>
       <c r="G89" s="5" t="n"/>
       <c r="H89" s="6" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>2.87Y</t>
-        </is>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>20交通银行02</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A90" s="3" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="n"/>
+      <c r="D90" s="4" t="n"/>
       <c r="E90" s="5" t="n"/>
       <c r="F90" s="5" t="n"/>
       <c r="G90" s="5" t="n"/>
       <c r="H90" s="6" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>2.87Y</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>20交通银行02</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="4" t="n"/>
       <c r="E91" s="5" t="n"/>
       <c r="F91" s="5" t="n"/>
       <c r="G91" s="5" t="n"/>
       <c r="H91" s="6" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>2.87Y</t>
-        </is>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>20交通银行02</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="n"/>
+      <c r="D92" s="4" t="n"/>
       <c r="E92" s="5" t="n"/>
       <c r="F92" s="5" t="n"/>
       <c r="G92" s="5" t="n"/>
       <c r="H92" s="6" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>2.87Y</t>
-        </is>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
-        <is>
-          <t>20交通银行02</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="n"/>
+      <c r="D93" s="4" t="n"/>
       <c r="E93" s="5" t="n"/>
       <c r="F93" s="5" t="n"/>
       <c r="G93" s="5" t="n"/>
       <c r="H93" s="6" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>2.96Y</t>
-        </is>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>20华夏银行</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="4" t="n"/>
+      <c r="C94" s="4" t="n"/>
+      <c r="D94" s="4" t="n"/>
       <c r="E94" s="5" t="n"/>
       <c r="F94" s="5" t="n"/>
       <c r="G94" s="5" t="n"/>
       <c r="H94" s="6" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>2.96Y</t>
-        </is>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
-        <is>
-          <t>20华夏银行</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="4" t="n"/>
+      <c r="C95" s="4" t="n"/>
+      <c r="D95" s="4" t="n"/>
       <c r="E95" s="5" t="n"/>
       <c r="F95" s="5" t="n"/>
       <c r="G95" s="5" t="n"/>
       <c r="H95" s="6" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>3.95Y+N</t>
-        </is>
-      </c>
-      <c r="B96" s="4" t="inlineStr">
-        <is>
-          <t>19中信银行永续债</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A96" s="3" t="n"/>
+      <c r="B96" s="4" t="n"/>
+      <c r="C96" s="4" t="n"/>
+      <c r="D96" s="4" t="n"/>
       <c r="E96" s="5" t="n"/>
       <c r="F96" s="5" t="n"/>
       <c r="G96" s="5" t="n"/>
@@ -6496,7 +5943,7 @@
       <c r="H310" s="10" t="n"/>
     </row>
     <row r="311">
-      <c r="A311" s="36" t="inlineStr">
+      <c r="A311" s="37" t="inlineStr">
         <is>
           <t>信用债成交</t>
         </is>
@@ -6504,7 +5951,7 @@
       <c r="B311" s="30" t="n"/>
       <c r="C311" s="30" t="n"/>
       <c r="D311" s="31" t="n"/>
-      <c r="E311" s="37">
+      <c r="E311" s="38">
         <f>$E$1</f>
         <v/>
       </c>
@@ -6513,42 +5960,42 @@
       <c r="H311" s="31" t="n"/>
     </row>
     <row r="312">
-      <c r="A312" s="36" t="inlineStr">
+      <c r="A312" s="37" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="B312" s="36" t="inlineStr">
+      <c r="B312" s="37" t="inlineStr">
         <is>
           <t>简称</t>
         </is>
       </c>
-      <c r="C312" s="36" t="inlineStr">
+      <c r="C312" s="37" t="inlineStr">
         <is>
           <t>收益率</t>
         </is>
       </c>
-      <c r="D312" s="36" t="inlineStr">
+      <c r="D312" s="37" t="inlineStr">
         <is>
           <t>评级</t>
         </is>
       </c>
-      <c r="E312" s="36" t="inlineStr">
+      <c r="E312" s="37" t="inlineStr">
         <is>
           <t>剩余期限</t>
         </is>
       </c>
-      <c r="F312" s="36" t="inlineStr">
+      <c r="F312" s="37" t="inlineStr">
         <is>
           <t>简称</t>
         </is>
       </c>
-      <c r="G312" s="36" t="inlineStr">
+      <c r="G312" s="37" t="inlineStr">
         <is>
           <t>收益率</t>
         </is>
       </c>
-      <c r="H312" s="36" t="inlineStr">
+      <c r="H312" s="37" t="inlineStr">
         <is>
           <t>评级</t>
         </is>
@@ -12942,8 +12389,8 @@
     <mergeCell ref="E249:H249"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="94"/>
